--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Wandering Albatross_South Georgia.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Wandering Albatross_South Georgia.xlsx
@@ -4080,13 +4080,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEC13A51-572E-4B2F-8FEA-395C18D0A6D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB18D3E2-DD71-461B-972C-0F21056F76FD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31B0CFAD-4FF2-454C-BE76-21C506F0020A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E80991-FED0-4AE0-83BD-AA9872684F2F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F52FD656-1D2E-4B6A-9137-04A20A29C8D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58612182-BCED-4D9F-9EE4-A493D4388025}"/>
 </file>